--- a/public/template/reservations.xlsx
+++ b/public/template/reservations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\singular-theatre\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DED6E53-25A1-4BBC-B526-36E64B4B7591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEC32E1-CBB8-4741-884A-050228B96905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32625" yWindow="-21720" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029" forceFullCalc="1"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
-    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -9460,7 +9460,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89E9D6A4-98C6-4B05-976A-7F4708E0E868}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89E9D6A4-98C6-4B05-976A-7F4708E0E868}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F1:G7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -9538,7 +9538,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A46F31DA-804D-4D1E-94F1-080EC8135BE1}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A46F31DA-804D-4D1E-94F1-080EC8135BE1}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -9886,17 +9886,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A355:H999"/>
+  <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="A1:G16"/>
+      <selection pane="bottomLeft" sqref="A1:H878"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
@@ -9905,10 +9905,3557 @@
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="1"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="1"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="1"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="1"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="1"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="1"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="1"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="1"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="1"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="1"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="1"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="1"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="1"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="1"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="1"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="1"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="1"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="1"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="1"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="1"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="1"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="1"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="1"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="1"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="1"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="1"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="1"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="1"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="1"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="1"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="1"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" s="1"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="1"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="1"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" s="1"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" s="1"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" s="1"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="1"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" s="1"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" s="1"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" s="1"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="1"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" s="1"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" s="1"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" s="1"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" s="1"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" s="1"/>
+      <c r="B287" s="2"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" s="1"/>
+      <c r="B288" s="2"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" s="1"/>
+      <c r="B289" s="2"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="1"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" s="1"/>
+      <c r="B291" s="2"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292" s="1"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" s="1"/>
+      <c r="B293" s="2"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294" s="1"/>
+      <c r="B294" s="2"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" s="1"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" s="1"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" s="1"/>
+      <c r="B297" s="2"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" s="1"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="2"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" s="1"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" s="1"/>
+      <c r="B301" s="2"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" s="1"/>
+      <c r="B302" s="2"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="2"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" s="1"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" s="1"/>
+      <c r="B305" s="2"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306" s="1"/>
+      <c r="B306" s="2"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" s="1"/>
+      <c r="B307" s="2"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308" s="1"/>
+      <c r="B308" s="2"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309" s="1"/>
+      <c r="B309" s="2"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310" s="1"/>
+      <c r="B310" s="2"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A311" s="1"/>
+      <c r="B311" s="2"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" s="1"/>
+      <c r="B312" s="2"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313" s="1"/>
+      <c r="B313" s="2"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" s="1"/>
+      <c r="B314" s="2"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315" s="1"/>
+      <c r="B315" s="2"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A316" s="1"/>
+      <c r="B316" s="2"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="1"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317" s="1"/>
+      <c r="B317" s="2"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="1"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318" s="1"/>
+      <c r="B318" s="2"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" s="1"/>
+      <c r="B319" s="2"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320" s="1"/>
+      <c r="B320" s="2"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" s="1"/>
+      <c r="B321" s="2"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="1"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" s="1"/>
+      <c r="B322" s="2"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+      <c r="H322" s="1"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" s="1"/>
+      <c r="B323" s="2"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+      <c r="G323" s="1"/>
+      <c r="H323" s="1"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" s="1"/>
+      <c r="B324" s="2"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" s="1"/>
+      <c r="B325" s="2"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" s="1"/>
+      <c r="B326" s="2"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+      <c r="H326" s="1"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" s="1"/>
+      <c r="B327" s="2"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="H327" s="1"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" s="1"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" s="1"/>
+      <c r="B329" s="2"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" s="1"/>
+      <c r="B330" s="2"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+      <c r="H330" s="1"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" s="1"/>
+      <c r="B331" s="2"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+      <c r="H331" s="1"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" s="1"/>
+      <c r="B332" s="2"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+      <c r="H332" s="1"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" s="1"/>
+      <c r="B333" s="2"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="1"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" s="1"/>
+      <c r="B334" s="2"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" s="1"/>
+      <c r="B335" s="2"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" s="1"/>
+      <c r="B336" s="2"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" s="1"/>
+      <c r="B337" s="2"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="1"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" s="1"/>
+      <c r="B338" s="2"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+      <c r="H338" s="1"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" s="1"/>
+      <c r="B339" s="2"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" s="1"/>
+      <c r="B340" s="2"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" s="1"/>
+      <c r="B341" s="2"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" s="1"/>
+      <c r="B342" s="2"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="H342" s="1"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" s="1"/>
+      <c r="B343" s="2"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="1"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" s="1"/>
+      <c r="B344" s="2"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="1"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" s="1"/>
+      <c r="B345" s="2"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" s="1"/>
+      <c r="B346" s="2"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" s="1"/>
+      <c r="B347" s="2"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+      <c r="H347" s="1"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" s="1"/>
+      <c r="B348" s="2"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="1"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" s="1"/>
+      <c r="B349" s="2"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" s="1"/>
+      <c r="B350" s="2"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" s="1"/>
+      <c r="B351" s="2"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" s="1"/>
+      <c r="B352" s="2"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="1"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" s="1"/>
+      <c r="B353" s="2"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" s="1"/>
+      <c r="B354" s="2"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" s="1"/>
+      <c r="B355" s="2"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="1"/>
@@ -9918,7 +13465,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="1"/>
@@ -9928,7 +13475,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="1"/>
@@ -9938,7 +13485,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="1"/>
@@ -9948,7 +13495,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="1"/>
@@ -9958,7 +13505,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="1"/>
@@ -9968,7 +13515,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="1"/>
@@ -9978,7 +13525,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="1"/>
@@ -9988,7 +13535,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="1"/>
@@ -9998,7 +13545,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="1"/>
@@ -10008,7 +13555,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="1"/>
@@ -10018,7 +13565,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="1"/>
@@ -10028,7 +13575,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="1"/>
@@ -10038,7 +13585,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="1"/>
@@ -10048,7 +13595,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="1"/>
@@ -10058,7 +13605,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
       <c r="C371" s="1"/>
@@ -10068,7 +13615,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="1"/>
@@ -10078,7 +13625,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="1"/>
@@ -10088,7 +13635,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="1"/>
@@ -10098,7 +13645,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
       <c r="C375" s="1"/>
@@ -10108,7 +13655,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="1"/>
@@ -10118,7 +13665,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
       <c r="C377" s="1"/>
@@ -10128,7 +13675,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="1"/>
@@ -10138,7 +13685,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
       <c r="C379" s="1"/>
@@ -10148,7 +13695,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
       <c r="C380" s="1"/>
@@ -10158,7 +13705,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
       <c r="C381" s="1"/>
@@ -10168,7 +13715,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
       <c r="C382" s="1"/>
@@ -10178,7 +13725,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
       <c r="C383" s="1"/>
@@ -10188,7 +13735,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
       <c r="C384" s="1"/>
@@ -10198,7 +13745,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
       <c r="C385" s="1"/>
@@ -10208,7 +13755,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
       <c r="C386" s="1"/>
@@ -10218,7 +13765,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
       <c r="C387" s="1"/>
@@ -10228,7 +13775,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
       <c r="C388" s="1"/>
@@ -10238,7 +13785,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
       <c r="C389" s="1"/>
@@ -10248,7 +13795,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
       <c r="C390" s="1"/>
@@ -10258,7 +13805,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
       <c r="C391" s="1"/>
@@ -10268,7 +13815,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
       <c r="C392" s="1"/>
@@ -10278,7 +13825,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
       <c r="C393" s="1"/>
@@ -10288,7 +13835,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
       <c r="C394" s="1"/>
@@ -10298,7 +13845,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
       <c r="C395" s="1"/>
@@ -10308,7 +13855,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
       <c r="C396" s="1"/>
@@ -10318,7 +13865,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
       <c r="C397" s="1"/>
@@ -10328,7 +13875,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
       <c r="C398" s="1"/>
@@ -10338,7 +13885,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
       <c r="C399" s="1"/>
@@ -10348,7 +13895,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
       <c r="C400" s="1"/>
@@ -10358,7 +13905,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
       <c r="C401" s="1"/>
@@ -10368,7 +13915,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
       <c r="C402" s="1"/>
@@ -10378,7 +13925,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
       <c r="C403" s="1"/>
@@ -10388,7 +13935,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
       <c r="C404" s="1"/>
@@ -10398,7 +13945,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
       <c r="C405" s="1"/>
@@ -10408,7 +13955,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
       <c r="C406" s="1"/>
@@ -10418,7 +13965,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
       <c r="C407" s="1"/>
@@ -10428,7 +13975,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
       <c r="C408" s="1"/>
@@ -10438,7 +13985,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
       <c r="C409" s="1"/>
@@ -10448,7 +13995,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
       <c r="C410" s="1"/>
@@ -10458,7 +14005,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
       <c r="C411" s="1"/>
@@ -10468,7 +14015,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
       <c r="C412" s="1"/>
@@ -10478,7 +14025,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
       <c r="C413" s="1"/>
@@ -10488,7 +14035,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
       <c r="C414" s="1"/>
@@ -10498,7 +14045,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
       <c r="C415" s="1"/>
@@ -10508,7 +14055,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
       <c r="C416" s="1"/>
@@ -10518,7 +14065,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
       <c r="C417" s="1"/>
@@ -10528,7 +14075,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
       <c r="C418" s="1"/>
@@ -10538,7 +14085,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
       <c r="C419" s="1"/>
@@ -10548,7 +14095,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
       <c r="C420" s="1"/>
@@ -10558,7 +14105,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
       <c r="C421" s="1"/>
@@ -10568,7 +14115,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
       <c r="C422" s="1"/>
@@ -10578,7 +14125,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
       <c r="C423" s="1"/>
@@ -10588,7 +14135,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
       <c r="C424" s="1"/>
@@ -10598,7 +14145,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
       <c r="C425" s="1"/>
@@ -10608,7 +14155,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
       <c r="C426" s="1"/>
@@ -10618,7 +14165,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
       <c r="C427" s="1"/>
@@ -10628,7 +14175,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
       <c r="C428" s="1"/>
@@ -10638,7 +14185,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
       <c r="C429" s="1"/>
@@ -10648,7 +14195,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
       <c r="C430" s="1"/>
@@ -10658,7 +14205,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
       <c r="C431" s="1"/>
@@ -10668,7 +14215,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
       <c r="C432" s="1"/>
@@ -10678,7 +14225,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
       <c r="C433" s="1"/>
@@ -10688,7 +14235,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
       <c r="C434" s="1"/>
@@ -10698,7 +14245,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
       <c r="C435" s="1"/>
@@ -10708,7 +14255,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
       <c r="C436" s="1"/>
@@ -10718,7 +14265,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
       <c r="C437" s="1"/>
@@ -10728,7 +14275,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
       <c r="C438" s="1"/>
@@ -10738,7 +14285,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
       <c r="C439" s="1"/>
@@ -10748,7 +14295,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
       <c r="C440" s="1"/>
@@ -10758,7 +14305,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
       <c r="C441" s="1"/>
@@ -10768,7 +14315,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
       <c r="C442" s="1"/>
@@ -10778,7 +14325,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
       <c r="C443" s="1"/>
@@ -10788,7 +14335,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
       <c r="C444" s="1"/>
@@ -10798,7 +14345,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
       <c r="C445" s="1"/>
@@ -10808,7 +14355,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
       <c r="C446" s="1"/>
@@ -10818,7 +14365,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
       <c r="C447" s="1"/>
@@ -10828,7 +14375,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
       <c r="C448" s="1"/>
@@ -10838,7 +14385,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
       <c r="C449" s="1"/>
@@ -10848,7 +14395,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
       <c r="C450" s="1"/>
@@ -10858,7 +14405,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
       <c r="C451" s="1"/>
@@ -10868,7 +14415,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
       <c r="C452" s="1"/>
@@ -10878,7 +14425,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
       <c r="C453" s="1"/>
@@ -10888,7 +14435,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
       <c r="C454" s="1"/>
@@ -10898,7 +14445,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
       <c r="C455" s="1"/>
@@ -10908,7 +14455,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
       <c r="C456" s="1"/>
@@ -10918,7 +14465,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
       <c r="C457" s="1"/>
@@ -10928,7 +14475,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
       <c r="C458" s="1"/>
@@ -10938,7 +14485,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
       <c r="C459" s="1"/>
@@ -10948,7 +14495,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
       <c r="C460" s="1"/>
@@ -10958,7 +14505,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
       <c r="C461" s="1"/>
@@ -10968,7 +14515,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
       <c r="C462" s="1"/>
@@ -10978,7 +14525,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
       <c r="C463" s="1"/>
@@ -10988,7 +14535,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
       <c r="C464" s="1"/>
@@ -10998,7 +14545,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
       <c r="C465" s="1"/>
@@ -11008,7 +14555,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
       <c r="C466" s="1"/>
@@ -11018,7 +14565,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
       <c r="C467" s="1"/>
@@ -11028,7 +14575,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
       <c r="C468" s="1"/>
@@ -11038,7 +14585,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
       <c r="C469" s="1"/>
@@ -11048,7 +14595,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
       <c r="C470" s="1"/>
@@ -11058,7 +14605,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
       <c r="C471" s="1"/>
@@ -11068,7 +14615,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
       <c r="C472" s="1"/>
@@ -11078,7 +14625,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
       <c r="C473" s="1"/>
@@ -11088,7 +14635,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
       <c r="C474" s="1"/>
@@ -11098,7 +14645,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
       <c r="C475" s="1"/>
@@ -11108,7 +14655,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
       <c r="C476" s="1"/>
@@ -11118,7 +14665,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
       <c r="C477" s="1"/>
@@ -11128,7 +14675,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
       <c r="C478" s="1"/>
@@ -11138,7 +14685,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
       <c r="C479" s="1"/>
@@ -11148,7 +14695,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
       <c r="C480" s="1"/>
@@ -11158,7 +14705,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
       <c r="C481" s="1"/>
@@ -11168,7 +14715,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
       <c r="C482" s="1"/>
@@ -11178,7 +14725,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
       <c r="C483" s="1"/>
@@ -11188,7 +14735,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
       <c r="C484" s="1"/>
@@ -11198,7 +14745,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
       <c r="C485" s="1"/>
@@ -11208,7 +14755,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
       <c r="C486" s="1"/>
@@ -11218,7 +14765,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
       <c r="C487" s="1"/>
@@ -11228,7 +14775,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
       <c r="C488" s="1"/>
@@ -11238,7 +14785,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
       <c r="C489" s="1"/>
@@ -11248,7 +14795,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
       <c r="C490" s="1"/>
@@ -11258,7 +14805,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
       <c r="C491" s="1"/>
@@ -11268,7 +14815,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
       <c r="C492" s="1"/>
@@ -11278,7 +14825,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
       <c r="C493" s="1"/>
@@ -11288,7 +14835,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
       <c r="C494" s="1"/>
@@ -11298,7 +14845,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
       <c r="C495" s="1"/>
@@ -11308,7 +14855,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
       <c r="C496" s="1"/>
@@ -11318,7 +14865,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
       <c r="C497" s="1"/>
@@ -11328,7 +14875,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
       <c r="C498" s="1"/>
@@ -11338,7 +14885,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
       <c r="C499" s="1"/>
@@ -11348,7 +14895,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
       <c r="C500" s="1"/>
@@ -11358,7 +14905,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
       <c r="C501" s="1"/>
@@ -11368,7 +14915,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
       <c r="C502" s="1"/>
@@ -11378,7 +14925,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
       <c r="C503" s="1"/>
@@ -11388,7 +14935,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
       <c r="C504" s="1"/>
@@ -11398,7 +14945,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
       <c r="C505" s="1"/>
@@ -11408,7 +14955,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
       <c r="C506" s="1"/>
@@ -11418,7 +14965,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
       <c r="C507" s="1"/>
@@ -11428,7 +14975,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
       <c r="C508" s="1"/>
@@ -11438,7 +14985,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
       <c r="C509" s="1"/>
@@ -11448,7 +14995,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
       <c r="C510" s="1"/>
@@ -11458,7 +15005,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
       <c r="C511" s="1"/>
@@ -11468,7 +15015,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
       <c r="C512" s="1"/>
@@ -11478,7 +15025,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
       <c r="C513" s="1"/>
@@ -11488,7 +15035,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
       <c r="C514" s="1"/>
@@ -11498,7 +15045,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="2"/>
       <c r="C515" s="1"/>
@@ -11508,7 +15055,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
       <c r="C516" s="1"/>
@@ -11518,7 +15065,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
       <c r="C517" s="1"/>
@@ -11528,7 +15075,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="2"/>
       <c r="C518" s="1"/>
@@ -11538,7 +15085,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
       <c r="C519" s="1"/>
@@ -11548,7 +15095,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
       <c r="C520" s="1"/>
@@ -11558,7 +15105,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
       <c r="C521" s="1"/>
@@ -11568,7 +15115,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
       <c r="C522" s="1"/>
@@ -11578,7 +15125,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
       <c r="C523" s="1"/>
@@ -11588,7 +15135,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
       <c r="C524" s="1"/>
@@ -11598,7 +15145,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
       <c r="C525" s="1"/>
@@ -11608,7 +15155,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="2"/>
       <c r="C526" s="1"/>
@@ -11618,7 +15165,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="2"/>
       <c r="C527" s="1"/>
@@ -11628,7 +15175,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="2"/>
       <c r="C528" s="1"/>
@@ -11638,7 +15185,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
       <c r="C529" s="1"/>
@@ -11648,7 +15195,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
       <c r="C530" s="1"/>
@@ -11658,7 +15205,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="2"/>
       <c r="C531" s="1"/>
@@ -11668,7 +15215,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
       <c r="C532" s="1"/>
@@ -11678,7 +15225,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="2"/>
       <c r="C533" s="1"/>
@@ -11688,7 +15235,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="2"/>
       <c r="C534" s="1"/>
@@ -11698,7 +15245,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
       <c r="C535" s="1"/>
@@ -11708,7 +15255,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="2"/>
       <c r="C536" s="1"/>
@@ -11718,7 +15265,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
       <c r="C537" s="1"/>
@@ -11728,7 +15275,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="2"/>
       <c r="C538" s="1"/>
@@ -11738,7 +15285,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="2"/>
       <c r="C539" s="1"/>
@@ -11748,7 +15295,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="2"/>
       <c r="C540" s="1"/>
@@ -11758,7 +15305,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
       <c r="C541" s="1"/>
@@ -11768,7 +15315,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="2"/>
       <c r="C542" s="1"/>
@@ -11778,7 +15325,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="2"/>
       <c r="C543" s="1"/>
@@ -11788,7 +15335,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="2"/>
       <c r="C544" s="1"/>
@@ -11798,7 +15345,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
       <c r="C545" s="1"/>
@@ -11808,7 +15355,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
       <c r="C546" s="1"/>
@@ -11818,7 +15365,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="2"/>
       <c r="C547" s="1"/>
@@ -11828,7 +15375,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
       <c r="C548" s="1"/>
@@ -11838,7 +15385,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="2"/>
       <c r="C549" s="1"/>
@@ -11848,7 +15395,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
       <c r="C550" s="1"/>
@@ -11858,7 +15405,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="2"/>
       <c r="C551" s="1"/>
@@ -11868,7 +15415,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="2"/>
       <c r="C552" s="1"/>
@@ -11878,7 +15425,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="2"/>
       <c r="C553" s="1"/>
@@ -11888,7 +15435,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="2"/>
       <c r="C554" s="1"/>
@@ -11898,7 +15445,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
       <c r="C555" s="1"/>
@@ -11908,7 +15455,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="2"/>
       <c r="C556" s="1"/>
@@ -11918,7 +15465,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
       <c r="C557" s="1"/>
@@ -11928,7 +15475,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
       <c r="C558" s="1"/>
@@ -11938,7 +15485,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="2"/>
       <c r="C559" s="1"/>
@@ -11948,7 +15495,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="2"/>
       <c r="C560" s="1"/>
@@ -11958,7 +15505,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
       <c r="C561" s="1"/>
@@ -11968,7 +15515,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
       <c r="C562" s="1"/>
@@ -11978,7 +15525,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="2"/>
       <c r="C563" s="1"/>
@@ -11988,7 +15535,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
       <c r="C564" s="1"/>
@@ -11998,7 +15545,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="2"/>
       <c r="C565" s="1"/>
@@ -12008,7 +15555,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="2"/>
       <c r="C566" s="1"/>
@@ -12018,7 +15565,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="2"/>
       <c r="C567" s="1"/>
@@ -12028,7 +15575,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
       <c r="C568" s="1"/>
@@ -12038,7 +15585,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
       <c r="C569" s="1"/>
@@ -12048,7 +15595,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="2"/>
       <c r="C570" s="1"/>
@@ -12058,7 +15605,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
       <c r="C571" s="1"/>
@@ -12068,7 +15615,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
       <c r="C572" s="1"/>
@@ -12078,7 +15625,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="2"/>
       <c r="C573" s="1"/>
@@ -12088,7 +15635,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="2"/>
       <c r="C574" s="1"/>
@@ -12098,7 +15645,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="2"/>
       <c r="C575" s="1"/>
@@ -12108,7 +15655,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
       <c r="C576" s="1"/>
@@ -12118,7 +15665,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="2"/>
       <c r="C577" s="1"/>
@@ -12128,7 +15675,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="2"/>
       <c r="C578" s="1"/>
@@ -12138,7 +15685,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="2"/>
       <c r="C579" s="1"/>
@@ -12148,7 +15695,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
       <c r="C580" s="1"/>
@@ -12158,7 +15705,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="2"/>
       <c r="C581" s="1"/>
@@ -12168,7 +15715,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="2"/>
       <c r="C582" s="1"/>
@@ -12178,7 +15725,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="2"/>
       <c r="C583" s="1"/>
@@ -12188,7 +15735,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="2"/>
       <c r="C584" s="1"/>
@@ -12198,7 +15745,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="2"/>
       <c r="C585" s="1"/>
@@ -12208,7 +15755,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
       <c r="C586" s="1"/>
@@ -12218,7 +15765,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
       <c r="C587" s="1"/>
@@ -12228,7 +15775,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="2"/>
       <c r="C588" s="1"/>
@@ -12238,7 +15785,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="2"/>
       <c r="C589" s="1"/>
@@ -12248,7 +15795,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="2"/>
       <c r="C590" s="1"/>
@@ -12258,7 +15805,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="2"/>
       <c r="C591" s="1"/>
@@ -12268,7 +15815,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
       <c r="C592" s="1"/>
@@ -12278,7 +15825,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="2"/>
       <c r="C593" s="1"/>
@@ -12288,7 +15835,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
       <c r="C594" s="1"/>
@@ -12298,7 +15845,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="2"/>
       <c r="C595" s="1"/>
@@ -12308,7 +15855,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="2"/>
       <c r="C596" s="1"/>
@@ -12318,7 +15865,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="2"/>
       <c r="C597" s="1"/>
@@ -12328,7 +15875,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="2"/>
       <c r="C598" s="1"/>
@@ -12338,7 +15885,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="2"/>
       <c r="C599" s="1"/>
@@ -12348,7 +15895,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
       <c r="C600" s="1"/>
@@ -12358,7 +15905,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="2"/>
       <c r="C601" s="1"/>
@@ -12368,7 +15915,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="2"/>
       <c r="C602" s="1"/>
@@ -12378,7 +15925,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="2"/>
       <c r="C603" s="1"/>
@@ -12388,7 +15935,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="2"/>
       <c r="C604" s="1"/>
@@ -12398,7 +15945,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="2"/>
       <c r="C605" s="1"/>
@@ -12408,7 +15955,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="2"/>
       <c r="C606" s="1"/>
@@ -12418,7 +15965,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="2"/>
       <c r="C607" s="1"/>
@@ -12428,7 +15975,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
       <c r="C608" s="1"/>
@@ -12438,7 +15985,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="2"/>
       <c r="C609" s="1"/>
@@ -12448,7 +15995,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
       <c r="C610" s="1"/>
@@ -12458,7 +16005,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
       <c r="C611" s="1"/>
@@ -12468,7 +16015,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="2"/>
       <c r="C612" s="1"/>
@@ -12478,7 +16025,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="2"/>
       <c r="C613" s="1"/>
@@ -12488,7 +16035,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="2"/>
       <c r="C614" s="1"/>
@@ -12498,7 +16045,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="2"/>
       <c r="C615" s="1"/>
@@ -12508,7 +16055,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="2"/>
       <c r="C616" s="1"/>
@@ -12518,7 +16065,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="2"/>
       <c r="C617" s="1"/>
@@ -12528,7 +16075,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="2"/>
       <c r="C618" s="1"/>
@@ -12538,7 +16085,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="2"/>
       <c r="C619" s="1"/>
@@ -12548,7 +16095,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="2"/>
       <c r="C620" s="1"/>
@@ -12558,7 +16105,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
       <c r="C621" s="1"/>
@@ -12568,7 +16115,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="2"/>
       <c r="C622" s="1"/>
@@ -12578,7 +16125,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="2"/>
       <c r="C623" s="1"/>
@@ -12588,7 +16135,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="2"/>
       <c r="C624" s="1"/>
@@ -12598,7 +16145,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="2"/>
       <c r="C625" s="1"/>
@@ -12608,7 +16155,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
       <c r="C626" s="1"/>
@@ -12618,7 +16165,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="2"/>
       <c r="C627" s="1"/>
@@ -12628,7 +16175,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="2"/>
       <c r="C628" s="1"/>
@@ -12638,7 +16185,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="2"/>
       <c r="C629" s="1"/>
@@ -12648,7 +16195,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="2"/>
       <c r="C630" s="1"/>
@@ -12658,7 +16205,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
       <c r="C631" s="1"/>
@@ -12668,7 +16215,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
       <c r="C632" s="1"/>
@@ -12678,7 +16225,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="2"/>
       <c r="C633" s="1"/>
@@ -12688,7 +16235,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="2"/>
       <c r="C634" s="1"/>
@@ -12698,7 +16245,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="2"/>
       <c r="C635" s="1"/>
@@ -12708,7 +16255,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="2"/>
       <c r="C636" s="1"/>
@@ -12718,7 +16265,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="2"/>
       <c r="C637" s="1"/>
@@ -12728,7 +16275,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="2"/>
       <c r="C638" s="1"/>
@@ -12738,7 +16285,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
       <c r="C639" s="1"/>
@@ -12748,7 +16295,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="2"/>
       <c r="C640" s="1"/>
@@ -12758,7 +16305,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="2"/>
       <c r="C641" s="1"/>
@@ -12768,7 +16315,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="2"/>
       <c r="C642" s="1"/>
@@ -12778,7 +16325,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="2"/>
       <c r="C643" s="1"/>
@@ -12788,7 +16335,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="2"/>
       <c r="C644" s="1"/>
@@ -12798,7 +16345,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="2"/>
       <c r="C645" s="1"/>
@@ -12808,7 +16355,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="2"/>
       <c r="C646" s="1"/>
@@ -12818,7 +16365,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="2"/>
       <c r="C647" s="1"/>
@@ -12828,7 +16375,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="2"/>
       <c r="C648" s="1"/>
@@ -12838,7 +16385,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="2"/>
       <c r="C649" s="1"/>
@@ -12848,7 +16395,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
       <c r="C650" s="1"/>
@@ -12858,7 +16405,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="2"/>
       <c r="C651" s="1"/>
@@ -12868,7 +16415,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="2"/>
       <c r="C652" s="1"/>
@@ -12878,7 +16425,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="2"/>
       <c r="C653" s="1"/>
@@ -12888,7 +16435,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="2"/>
       <c r="C654" s="1"/>
@@ -12898,7 +16445,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="2"/>
       <c r="C655" s="1"/>
@@ -12908,7 +16455,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="2"/>
       <c r="C656" s="1"/>
@@ -12918,7 +16465,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="2"/>
       <c r="C657" s="1"/>
@@ -12928,7 +16475,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="2"/>
       <c r="C658" s="1"/>
@@ -12938,7 +16485,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="2"/>
       <c r="C659" s="1"/>
@@ -12948,7 +16495,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="2"/>
       <c r="C660" s="1"/>
@@ -12958,7 +16505,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
       <c r="C661" s="1"/>
@@ -12968,7 +16515,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
       <c r="C662" s="1"/>
@@ -12978,7 +16525,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
       <c r="C663" s="1"/>
@@ -12988,7 +16535,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="2"/>
       <c r="C664" s="1"/>
@@ -12998,7 +16545,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="2"/>
       <c r="C665" s="1"/>
@@ -13008,7 +16555,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="2"/>
       <c r="C666" s="1"/>
@@ -13018,7 +16565,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="2"/>
       <c r="C667" s="1"/>
@@ -13028,7 +16575,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="2"/>
       <c r="C668" s="1"/>
@@ -13038,7 +16585,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="2"/>
       <c r="C669" s="1"/>
@@ -13048,7 +16595,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="2"/>
       <c r="C670" s="1"/>
@@ -13058,7 +16605,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="2"/>
       <c r="C671" s="1"/>
@@ -13068,7 +16615,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="2"/>
       <c r="C672" s="1"/>
@@ -13078,7 +16625,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="2"/>
       <c r="C673" s="1"/>
@@ -13088,7 +16635,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="2"/>
       <c r="C674" s="1"/>
@@ -13098,7 +16645,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="2"/>
       <c r="C675" s="1"/>
@@ -13108,7 +16655,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
       <c r="C676" s="1"/>
@@ -13118,7 +16665,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="2"/>
       <c r="C677" s="1"/>
@@ -13128,7 +16675,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="2"/>
       <c r="C678" s="1"/>
@@ -13138,7 +16685,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="2"/>
       <c r="C679" s="1"/>
@@ -13148,7 +16695,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="2"/>
       <c r="C680" s="1"/>
@@ -13158,7 +16705,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="2"/>
       <c r="C681" s="1"/>
@@ -13168,7 +16715,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="2"/>
       <c r="C682" s="1"/>
@@ -13178,7 +16725,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="2"/>
       <c r="C683" s="1"/>
@@ -13188,7 +16735,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="2"/>
       <c r="C684" s="1"/>
@@ -13198,7 +16745,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="2"/>
       <c r="C685" s="1"/>
@@ -13208,7 +16755,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="2"/>
       <c r="C686" s="1"/>
@@ -13218,7 +16765,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="2"/>
       <c r="C687" s="1"/>
@@ -13228,7 +16775,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="2"/>
       <c r="C688" s="1"/>
@@ -13238,7 +16785,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="2"/>
       <c r="C689" s="1"/>
@@ -13248,7 +16795,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="2"/>
       <c r="C690" s="1"/>
@@ -13258,7 +16805,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="2"/>
       <c r="C691" s="1"/>
@@ -13268,7 +16815,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="2"/>
       <c r="C692" s="1"/>
@@ -13278,7 +16825,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="2"/>
       <c r="C693" s="1"/>
@@ -13288,7 +16835,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="2"/>
       <c r="C694" s="1"/>
@@ -13298,7 +16845,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="2"/>
       <c r="C695" s="1"/>
@@ -13308,7 +16855,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="2"/>
       <c r="C696" s="1"/>
@@ -13318,7 +16865,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="2"/>
       <c r="C697" s="1"/>
@@ -13328,7 +16875,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="2"/>
       <c r="C698" s="1"/>
@@ -13338,7 +16885,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="2"/>
       <c r="C699" s="1"/>
@@ -13348,7 +16895,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="2"/>
       <c r="C700" s="1"/>
@@ -13358,7 +16905,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="2"/>
       <c r="C701" s="1"/>
@@ -13368,7 +16915,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="2"/>
       <c r="C702" s="1"/>
@@ -13378,7 +16925,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="2"/>
       <c r="C703" s="1"/>
@@ -13388,7 +16935,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="2"/>
       <c r="C704" s="1"/>
@@ -13398,7 +16945,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="2"/>
       <c r="C705" s="1"/>
@@ -13408,7 +16955,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="2"/>
       <c r="C706" s="1"/>
@@ -13418,7 +16965,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="2"/>
       <c r="C707" s="1"/>
@@ -13428,7 +16975,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="2"/>
       <c r="C708" s="1"/>
@@ -13438,7 +16985,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="2"/>
       <c r="C709" s="1"/>
@@ -13448,7 +16995,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="2"/>
       <c r="C710" s="1"/>
@@ -13458,7 +17005,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="2"/>
       <c r="C711" s="1"/>
@@ -13468,7 +17015,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="2"/>
       <c r="C712" s="1"/>
@@ -13478,7 +17025,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="2"/>
       <c r="C713" s="1"/>
@@ -13488,7 +17035,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="2"/>
       <c r="C714" s="1"/>
@@ -13498,7 +17045,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="2"/>
       <c r="C715" s="1"/>
@@ -13508,7 +17055,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="2"/>
       <c r="C716" s="1"/>
@@ -13518,7 +17065,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="2"/>
       <c r="C717" s="1"/>
@@ -13528,7 +17075,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="2"/>
       <c r="C718" s="1"/>
@@ -13538,7 +17085,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="2"/>
       <c r="C719" s="1"/>
@@ -13548,7 +17095,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="2"/>
       <c r="C720" s="1"/>
@@ -13558,7 +17105,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
       <c r="C721" s="1"/>
@@ -13568,7 +17115,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="2"/>
       <c r="C722" s="1"/>
@@ -13578,7 +17125,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="2"/>
       <c r="C723" s="1"/>
@@ -13588,7 +17135,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="2"/>
       <c r="C724" s="1"/>
@@ -13598,7 +17145,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="2"/>
       <c r="C725" s="1"/>
@@ -13608,7 +17155,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="2"/>
       <c r="C726" s="1"/>
@@ -13618,7 +17165,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="2"/>
       <c r="C727" s="1"/>
@@ -13628,7 +17175,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="2"/>
       <c r="C728" s="1"/>
@@ -13638,7 +17185,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="2"/>
       <c r="C729" s="1"/>
@@ -13648,7 +17195,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="2"/>
       <c r="C730" s="1"/>
@@ -13658,7 +17205,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="2"/>
       <c r="C731" s="1"/>
@@ -13668,7 +17215,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="2"/>
       <c r="C732" s="1"/>
@@ -13678,7 +17225,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="2"/>
       <c r="C733" s="1"/>
@@ -13688,7 +17235,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="2"/>
       <c r="C734" s="1"/>
@@ -13698,7 +17245,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="2"/>
       <c r="C735" s="1"/>
@@ -13708,7 +17255,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="2"/>
       <c r="C736" s="1"/>
@@ -13718,7 +17265,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="2"/>
       <c r="C737" s="1"/>
@@ -13728,7 +17275,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="2"/>
       <c r="C738" s="1"/>
@@ -13738,7 +17285,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="2"/>
       <c r="C739" s="1"/>
@@ -13748,7 +17295,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="2"/>
       <c r="C740" s="1"/>
@@ -13758,7 +17305,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="2"/>
       <c r="C741" s="1"/>
@@ -13768,7 +17315,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="2"/>
       <c r="C742" s="1"/>
@@ -13778,7 +17325,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="2"/>
       <c r="C743" s="1"/>
@@ -13788,7 +17335,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="2"/>
       <c r="C744" s="1"/>
@@ -13798,7 +17345,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="2"/>
       <c r="C745" s="1"/>
@@ -13808,7 +17355,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="2"/>
       <c r="C746" s="1"/>
@@ -13818,7 +17365,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="2"/>
       <c r="C747" s="1"/>
@@ -13828,7 +17375,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="2"/>
       <c r="C748" s="1"/>
@@ -13838,7 +17385,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="2"/>
       <c r="C749" s="1"/>
@@ -13848,7 +17395,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="2"/>
       <c r="C750" s="1"/>
@@ -13858,7 +17405,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="2"/>
       <c r="C751" s="1"/>
@@ -13868,7 +17415,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="2"/>
       <c r="C752" s="1"/>
@@ -13878,7 +17425,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="2"/>
       <c r="C753" s="1"/>
@@ -13888,7 +17435,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="2"/>
       <c r="C754" s="1"/>
@@ -13898,7 +17445,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="2"/>
       <c r="C755" s="1"/>
@@ -13908,7 +17455,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="2"/>
       <c r="C756" s="1"/>
@@ -13918,7 +17465,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="2"/>
       <c r="C757" s="1"/>
@@ -13928,7 +17475,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="2"/>
       <c r="C758" s="1"/>
@@ -13938,7 +17485,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="2"/>
       <c r="C759" s="1"/>
@@ -13948,7 +17495,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="2"/>
       <c r="C760" s="1"/>
@@ -13958,7 +17505,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="2"/>
       <c r="C761" s="1"/>
@@ -13968,7 +17515,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="2"/>
       <c r="C762" s="1"/>
@@ -13978,7 +17525,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="2"/>
       <c r="C763" s="1"/>
@@ -13988,7 +17535,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="2"/>
       <c r="C764" s="1"/>
@@ -13998,7 +17545,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="2"/>
       <c r="C765" s="1"/>
@@ -14008,7 +17555,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="2"/>
       <c r="C766" s="1"/>
@@ -14018,7 +17565,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="2"/>
       <c r="C767" s="1"/>
@@ -14028,7 +17575,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="2"/>
       <c r="C768" s="1"/>
@@ -14038,7 +17585,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="2"/>
       <c r="C769" s="1"/>
@@ -14048,7 +17595,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="2"/>
       <c r="C770" s="1"/>
@@ -14058,7 +17605,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="2"/>
       <c r="C771" s="1"/>
@@ -14068,7 +17615,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="2"/>
       <c r="C772" s="1"/>
@@ -14078,7 +17625,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="2"/>
       <c r="C773" s="1"/>
@@ -14088,7 +17635,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="2"/>
       <c r="C774" s="1"/>
@@ -14098,7 +17645,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="2"/>
       <c r="C775" s="1"/>
@@ -14108,7 +17655,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="2"/>
       <c r="C776" s="1"/>
@@ -14118,7 +17665,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="2"/>
       <c r="C777" s="1"/>
@@ -14128,7 +17675,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="2"/>
       <c r="C778" s="1"/>
@@ -14138,7 +17685,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="2"/>
       <c r="C779" s="1"/>
@@ -14148,7 +17695,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="2"/>
       <c r="C780" s="1"/>
@@ -14158,7 +17705,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="2"/>
       <c r="C781" s="1"/>
@@ -14168,7 +17715,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="2"/>
       <c r="C782" s="1"/>
@@ -14178,7 +17725,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="2"/>
       <c r="C783" s="1"/>
@@ -14188,7 +17735,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="2"/>
       <c r="C784" s="1"/>
@@ -14198,7 +17745,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="2"/>
       <c r="C785" s="1"/>
@@ -14208,7 +17755,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="2"/>
       <c r="C786" s="1"/>
@@ -14218,7 +17765,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="2"/>
       <c r="C787" s="1"/>
@@ -14228,7 +17775,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="2"/>
       <c r="C788" s="1"/>
@@ -14238,7 +17785,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="2"/>
       <c r="C789" s="1"/>
@@ -14248,7 +17795,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="2"/>
       <c r="C790" s="1"/>
@@ -14258,7 +17805,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="2"/>
       <c r="C791" s="1"/>
@@ -14268,7 +17815,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="2"/>
       <c r="C792" s="1"/>
@@ -14278,7 +17825,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="2"/>
       <c r="C793" s="1"/>
@@ -14288,7 +17835,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="2"/>
       <c r="C794" s="1"/>
@@ -14298,7 +17845,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="2"/>
       <c r="C795" s="1"/>
@@ -14308,7 +17855,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="2"/>
       <c r="C796" s="1"/>
@@ -14318,7 +17865,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="2"/>
       <c r="C797" s="1"/>
@@ -14328,7 +17875,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="2"/>
       <c r="C798" s="1"/>
@@ -14338,7 +17885,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="2"/>
       <c r="C799" s="1"/>
@@ -14348,7 +17895,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="2"/>
       <c r="C800" s="1"/>
@@ -14358,7 +17905,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="2"/>
       <c r="C801" s="1"/>
@@ -14368,7 +17915,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="2"/>
       <c r="C802" s="1"/>
@@ -14378,7 +17925,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="2"/>
       <c r="C803" s="1"/>
@@ -14388,7 +17935,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="2"/>
       <c r="C804" s="1"/>
@@ -14398,7 +17945,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="2"/>
       <c r="C805" s="1"/>
@@ -14408,7 +17955,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="2"/>
       <c r="C806" s="1"/>
@@ -14418,7 +17965,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="2"/>
       <c r="C807" s="1"/>
@@ -14428,7 +17975,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="2"/>
       <c r="C808" s="1"/>
@@ -14438,7 +17985,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="2"/>
       <c r="C809" s="1"/>
@@ -14448,7 +17995,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="2"/>
       <c r="C810" s="1"/>
@@ -14458,7 +18005,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="2"/>
       <c r="C811" s="1"/>
@@ -14468,7 +18015,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="2"/>
       <c r="C812" s="1"/>
@@ -14478,7 +18025,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="2"/>
       <c r="C813" s="1"/>
@@ -14488,7 +18035,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="2"/>
       <c r="C814" s="1"/>
@@ -14498,7 +18045,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="2"/>
       <c r="C815" s="1"/>
@@ -14508,7 +18055,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="2"/>
       <c r="C816" s="1"/>
@@ -14518,7 +18065,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="2"/>
       <c r="C817" s="1"/>
@@ -14528,7 +18075,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="2"/>
       <c r="C818" s="1"/>
@@ -14538,7 +18085,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="2"/>
       <c r="C819" s="1"/>
@@ -14548,7 +18095,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="2"/>
       <c r="C820" s="1"/>
@@ -14558,7 +18105,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="2"/>
       <c r="C821" s="1"/>
@@ -14568,7 +18115,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="2"/>
       <c r="C822" s="1"/>
@@ -14578,7 +18125,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="2"/>
       <c r="C823" s="1"/>
@@ -14588,7 +18135,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="2"/>
       <c r="C824" s="1"/>
@@ -14598,7 +18145,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="2"/>
       <c r="C825" s="1"/>
@@ -14608,7 +18155,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="2"/>
       <c r="C826" s="1"/>
@@ -14618,7 +18165,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="2"/>
       <c r="C827" s="1"/>
@@ -14628,7 +18175,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="2"/>
       <c r="C828" s="1"/>
@@ -14638,7 +18185,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="2"/>
       <c r="C829" s="1"/>
@@ -14648,7 +18195,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="2"/>
       <c r="C830" s="1"/>
@@ -14658,7 +18205,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="2"/>
       <c r="C831" s="1"/>
@@ -14668,7 +18215,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="2"/>
       <c r="C832" s="1"/>
@@ -14678,7 +18225,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="2"/>
       <c r="C833" s="1"/>
@@ -14688,7 +18235,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="2"/>
       <c r="C834" s="1"/>
@@ -14698,7 +18245,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="2"/>
       <c r="C835" s="1"/>
@@ -14708,7 +18255,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="2"/>
       <c r="C836" s="1"/>
@@ -14718,7 +18265,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="2"/>
       <c r="C837" s="1"/>
@@ -14728,7 +18275,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="2"/>
       <c r="C838" s="1"/>
@@ -14738,7 +18285,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="2"/>
       <c r="C839" s="1"/>
@@ -14748,7 +18295,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="2"/>
       <c r="C840" s="1"/>
@@ -14758,7 +18305,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="2"/>
       <c r="C841" s="1"/>
@@ -14768,7 +18315,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="2"/>
       <c r="C842" s="1"/>
@@ -14778,7 +18325,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="2"/>
       <c r="C843" s="1"/>
@@ -14788,7 +18335,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="2"/>
       <c r="C844" s="1"/>
@@ -14798,7 +18345,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="2"/>
       <c r="C845" s="1"/>
@@ -14808,7 +18355,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="2"/>
       <c r="C846" s="1"/>
@@ -14818,7 +18365,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="2"/>
       <c r="C847" s="1"/>
@@ -14828,7 +18375,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="2"/>
       <c r="C848" s="1"/>
@@ -14838,7 +18385,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="2"/>
       <c r="C849" s="1"/>
@@ -14848,7 +18395,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="2"/>
       <c r="C850" s="1"/>
@@ -14858,7 +18405,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="2"/>
       <c r="C851" s="1"/>
@@ -14868,7 +18415,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="2"/>
       <c r="C852" s="1"/>
@@ -14878,7 +18425,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="2"/>
       <c r="C853" s="1"/>
@@ -14888,7 +18435,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="2"/>
       <c r="C854" s="1"/>
@@ -14898,7 +18445,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="2"/>
       <c r="C855" s="1"/>
@@ -14908,7 +18455,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="2"/>
       <c r="C856" s="1"/>
@@ -14918,7 +18465,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="2"/>
       <c r="C857" s="1"/>
@@ -14928,7 +18475,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="2"/>
       <c r="C858" s="1"/>
@@ -14938,7 +18485,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="2"/>
       <c r="C859" s="1"/>
@@ -14948,7 +18495,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="2"/>
       <c r="C860" s="1"/>
@@ -14958,7 +18505,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="2"/>
       <c r="C861" s="1"/>
@@ -14968,7 +18515,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="2"/>
       <c r="C862" s="1"/>
@@ -14978,7 +18525,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="2"/>
       <c r="C863" s="1"/>
@@ -14988,7 +18535,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="2"/>
       <c r="C864" s="1"/>
@@ -14998,7 +18545,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="2"/>
       <c r="C865" s="1"/>
@@ -15008,7 +18555,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="2"/>
       <c r="C866" s="1"/>
@@ -15018,7 +18565,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="2"/>
       <c r="C867" s="1"/>
@@ -15028,7 +18575,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="2"/>
       <c r="C868" s="1"/>
@@ -15038,7 +18585,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="2"/>
       <c r="C869" s="1"/>
@@ -15048,7 +18595,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="2"/>
       <c r="C870" s="1"/>
@@ -15058,7 +18605,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="2"/>
       <c r="C871" s="1"/>
@@ -15068,7 +18615,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="2"/>
       <c r="C872" s="1"/>
@@ -15078,7 +18625,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="2"/>
       <c r="C873" s="1"/>
@@ -15088,7 +18635,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="2"/>
       <c r="C874" s="1"/>
@@ -15098,7 +18645,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="2"/>
       <c r="C875" s="1"/>
@@ -15108,7 +18655,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="2"/>
       <c r="C876" s="1"/>
@@ -15118,7 +18665,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="2"/>
       <c r="C877" s="1"/>
@@ -15128,7 +18675,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="2"/>
       <c r="C878" s="1"/>
@@ -15138,7 +18685,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="2"/>
       <c r="C879" s="1"/>
@@ -15148,7 +18695,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="2"/>
       <c r="C880" s="1"/>
@@ -15158,7 +18705,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="2"/>
       <c r="C881" s="1"/>
@@ -15168,7 +18715,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="2"/>
       <c r="C882" s="1"/>
@@ -15178,7 +18725,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="B883" s="2"/>
       <c r="C883" s="1"/>
@@ -15188,7 +18735,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="B884" s="2"/>
       <c r="C884" s="1"/>
@@ -15198,7 +18745,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="2"/>
       <c r="C885" s="1"/>
@@ -15208,7 +18755,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="B886" s="2"/>
       <c r="C886" s="1"/>
@@ -15218,7 +18765,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="B887" s="2"/>
       <c r="C887" s="1"/>
@@ -15228,7 +18775,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="B888" s="2"/>
       <c r="C888" s="1"/>
@@ -15238,7 +18785,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="B889" s="2"/>
       <c r="C889" s="1"/>
@@ -15248,7 +18795,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="B890" s="2"/>
       <c r="C890" s="1"/>
@@ -15258,7 +18805,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="B891" s="2"/>
       <c r="C891" s="1"/>
@@ -15268,7 +18815,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="2"/>
       <c r="C892" s="1"/>
@@ -15278,7 +18825,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="B893" s="2"/>
       <c r="C893" s="1"/>
@@ -15288,7 +18835,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="B894" s="2"/>
       <c r="C894" s="1"/>
@@ -15298,7 +18845,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="B895" s="2"/>
       <c r="C895" s="1"/>
@@ -15308,7 +18855,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="2"/>
       <c r="C896" s="1"/>
@@ -15318,7 +18865,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="B897" s="2"/>
       <c r="C897" s="1"/>
@@ -15328,7 +18875,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="B898" s="2"/>
       <c r="C898" s="1"/>
@@ -15338,7 +18885,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="B899" s="2"/>
       <c r="C899" s="1"/>
@@ -15348,7 +18895,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="B900" s="2"/>
       <c r="C900" s="1"/>
@@ -15358,7 +18905,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="B901" s="2"/>
       <c r="C901" s="1"/>
@@ -15368,7 +18915,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="B902" s="2"/>
       <c r="C902" s="1"/>
@@ -15378,7 +18925,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="2"/>
       <c r="C903" s="1"/>
@@ -15388,7 +18935,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="B904" s="2"/>
       <c r="C904" s="1"/>
@@ -15398,7 +18945,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="B905" s="2"/>
       <c r="C905" s="1"/>
@@ -15408,7 +18955,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="B906" s="2"/>
       <c r="C906" s="1"/>
@@ -15418,7 +18965,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="2"/>
       <c r="C907" s="1"/>
@@ -15428,7 +18975,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="B908" s="2"/>
       <c r="C908" s="1"/>
@@ -15438,7 +18985,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="B909" s="2"/>
       <c r="C909" s="1"/>
@@ -15448,7 +18995,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="B910" s="2"/>
       <c r="C910" s="1"/>
@@ -15458,7 +19005,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="B911" s="2"/>
       <c r="C911" s="1"/>
@@ -15468,7 +19015,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="B912" s="2"/>
       <c r="C912" s="1"/>
@@ -15478,7 +19025,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="B913" s="2"/>
       <c r="C913" s="1"/>
@@ -15488,7 +19035,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="2"/>
       <c r="C914" s="1"/>
@@ -15498,7 +19045,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="B915" s="2"/>
       <c r="C915" s="1"/>
@@ -15508,7 +19055,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="B916" s="2"/>
       <c r="C916" s="1"/>
@@ -15518,7 +19065,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="B917" s="2"/>
       <c r="C917" s="1"/>
@@ -15528,7 +19075,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="2"/>
       <c r="C918" s="1"/>
@@ -15538,7 +19085,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="B919" s="2"/>
       <c r="C919" s="1"/>
@@ -15548,7 +19095,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="B920" s="2"/>
       <c r="C920" s="1"/>
@@ -15558,7 +19105,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A921" s="1"/>
       <c r="B921" s="2"/>
       <c r="C921" s="1"/>
@@ -15568,7 +19115,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A922" s="1"/>
       <c r="B922" s="2"/>
       <c r="C922" s="1"/>
@@ -15578,7 +19125,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A923" s="1"/>
       <c r="B923" s="2"/>
       <c r="C923" s="1"/>
@@ -15588,7 +19135,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A924" s="1"/>
       <c r="B924" s="2"/>
       <c r="C924" s="1"/>
@@ -15598,7 +19145,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A925" s="1"/>
       <c r="B925" s="2"/>
       <c r="C925" s="1"/>
@@ -15608,7 +19155,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="2"/>
       <c r="C926" s="1"/>
@@ -15618,7 +19165,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A927" s="1"/>
       <c r="B927" s="2"/>
       <c r="C927" s="1"/>
@@ -15628,7 +19175,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A928" s="1"/>
       <c r="B928" s="2"/>
       <c r="C928" s="1"/>
@@ -15638,7 +19185,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A929" s="1"/>
       <c r="B929" s="2"/>
       <c r="C929" s="1"/>
@@ -15648,7 +19195,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="2"/>
       <c r="C930" s="1"/>
@@ -15658,7 +19205,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A931" s="1"/>
       <c r="B931" s="2"/>
       <c r="C931" s="1"/>
@@ -15668,7 +19215,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A932" s="1"/>
       <c r="B932" s="2"/>
       <c r="C932" s="1"/>
@@ -15678,7 +19225,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A933" s="1"/>
       <c r="B933" s="2"/>
       <c r="C933" s="1"/>
@@ -15688,7 +19235,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A934" s="1"/>
       <c r="B934" s="2"/>
       <c r="C934" s="1"/>
@@ -15698,7 +19245,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A935" s="1"/>
       <c r="B935" s="2"/>
       <c r="C935" s="1"/>
@@ -15708,7 +19255,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A936" s="1"/>
       <c r="B936" s="2"/>
       <c r="C936" s="1"/>
@@ -15718,7 +19265,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="2"/>
       <c r="C937" s="1"/>
@@ -15728,7 +19275,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A938" s="1"/>
       <c r="B938" s="2"/>
       <c r="C938" s="1"/>
@@ -15738,7 +19285,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A939" s="1"/>
       <c r="B939" s="2"/>
       <c r="C939" s="1"/>
@@ -15748,7 +19295,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" s="1"/>
       <c r="B940" s="2"/>
       <c r="C940" s="1"/>
@@ -15758,7 +19305,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="2"/>
       <c r="C941" s="1"/>
@@ -15768,7 +19315,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A942" s="1"/>
       <c r="B942" s="2"/>
       <c r="C942" s="1"/>
@@ -15778,7 +19325,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A943" s="1"/>
       <c r="B943" s="2"/>
       <c r="C943" s="1"/>
@@ -15788,7 +19335,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A944" s="1"/>
       <c r="B944" s="2"/>
       <c r="C944" s="1"/>
@@ -15798,7 +19345,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A945" s="1"/>
       <c r="B945" s="2"/>
       <c r="C945" s="1"/>
@@ -15808,7 +19355,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A946" s="1"/>
       <c r="B946" s="2"/>
       <c r="C946" s="1"/>
@@ -15818,7 +19365,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A947" s="1"/>
       <c r="B947" s="2"/>
       <c r="C947" s="1"/>
@@ -15828,7 +19375,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="2"/>
       <c r="C948" s="1"/>
@@ -15838,7 +19385,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A949" s="1"/>
       <c r="B949" s="2"/>
       <c r="C949" s="1"/>
@@ -15848,7 +19395,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A950" s="1"/>
       <c r="B950" s="2"/>
       <c r="C950" s="1"/>
@@ -15858,7 +19405,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A951" s="1"/>
       <c r="B951" s="2"/>
       <c r="C951" s="1"/>
@@ -15868,7 +19415,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="2"/>
       <c r="C952" s="1"/>
@@ -15878,7 +19425,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A953" s="1"/>
       <c r="B953" s="2"/>
       <c r="C953" s="1"/>
@@ -15888,7 +19435,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A954" s="1"/>
       <c r="B954" s="2"/>
       <c r="C954" s="1"/>
@@ -15898,7 +19445,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A955" s="1"/>
       <c r="B955" s="2"/>
       <c r="C955" s="1"/>
@@ -15908,7 +19455,7 @@
       <c r="G955" s="1"/>
       <c r="H955" s="1"/>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A956" s="1"/>
       <c r="B956" s="2"/>
       <c r="C956" s="1"/>
@@ -15918,7 +19465,7 @@
       <c r="G956" s="1"/>
       <c r="H956" s="1"/>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A957" s="1"/>
       <c r="B957" s="2"/>
       <c r="C957" s="1"/>
@@ -15928,7 +19475,7 @@
       <c r="G957" s="1"/>
       <c r="H957" s="1"/>
     </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A958" s="1"/>
       <c r="B958" s="2"/>
       <c r="C958" s="1"/>
@@ -15938,7 +19485,7 @@
       <c r="G958" s="1"/>
       <c r="H958" s="1"/>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A959" s="1"/>
       <c r="B959" s="2"/>
       <c r="C959" s="1"/>
@@ -15948,7 +19495,7 @@
       <c r="G959" s="1"/>
       <c r="H959" s="1"/>
     </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="2"/>
       <c r="C960" s="1"/>
@@ -15958,7 +19505,7 @@
       <c r="G960" s="1"/>
       <c r="H960" s="1"/>
     </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A961" s="1"/>
       <c r="B961" s="2"/>
       <c r="C961" s="1"/>
@@ -15968,7 +19515,7 @@
       <c r="G961" s="1"/>
       <c r="H961" s="1"/>
     </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A962" s="1"/>
       <c r="B962" s="2"/>
       <c r="C962" s="1"/>
@@ -15978,7 +19525,7 @@
       <c r="G962" s="1"/>
       <c r="H962" s="1"/>
     </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A963" s="1"/>
       <c r="B963" s="2"/>
       <c r="C963" s="1"/>
@@ -15988,7 +19535,7 @@
       <c r="G963" s="1"/>
       <c r="H963" s="1"/>
     </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="B964" s="2"/>
       <c r="C964" s="1"/>
@@ -15998,7 +19545,7 @@
       <c r="G964" s="1"/>
       <c r="H964" s="1"/>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A965" s="1"/>
       <c r="B965" s="2"/>
       <c r="C965" s="1"/>
@@ -16008,7 +19555,7 @@
       <c r="G965" s="1"/>
       <c r="H965" s="1"/>
     </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A966" s="1"/>
       <c r="B966" s="2"/>
       <c r="C966" s="1"/>
@@ -16018,7 +19565,7 @@
       <c r="G966" s="1"/>
       <c r="H966" s="1"/>
     </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A967" s="1"/>
       <c r="B967" s="2"/>
       <c r="C967" s="1"/>
@@ -16028,7 +19575,7 @@
       <c r="G967" s="1"/>
       <c r="H967" s="1"/>
     </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A968" s="1"/>
       <c r="B968" s="2"/>
       <c r="C968" s="1"/>
@@ -16038,7 +19585,7 @@
       <c r="G968" s="1"/>
       <c r="H968" s="1"/>
     </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A969" s="1"/>
       <c r="B969" s="2"/>
       <c r="C969" s="1"/>
@@ -16048,7 +19595,7 @@
       <c r="G969" s="1"/>
       <c r="H969" s="1"/>
     </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A970" s="1"/>
       <c r="B970" s="2"/>
       <c r="C970" s="1"/>
@@ -16058,7 +19605,7 @@
       <c r="G970" s="1"/>
       <c r="H970" s="1"/>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="B971" s="2"/>
       <c r="C971" s="1"/>
@@ -16068,7 +19615,7 @@
       <c r="G971" s="1"/>
       <c r="H971" s="1"/>
     </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A972" s="1"/>
       <c r="B972" s="2"/>
       <c r="C972" s="1"/>
@@ -16078,7 +19625,7 @@
       <c r="G972" s="1"/>
       <c r="H972" s="1"/>
     </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A973" s="1"/>
       <c r="B973" s="2"/>
       <c r="C973" s="1"/>
@@ -16088,7 +19635,7 @@
       <c r="G973" s="1"/>
       <c r="H973" s="1"/>
     </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A974" s="1"/>
       <c r="B974" s="2"/>
       <c r="C974" s="1"/>
@@ -16098,7 +19645,7 @@
       <c r="G974" s="1"/>
       <c r="H974" s="1"/>
     </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="B975" s="2"/>
       <c r="C975" s="1"/>
@@ -16108,7 +19655,7 @@
       <c r="G975" s="1"/>
       <c r="H975" s="1"/>
     </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A976" s="1"/>
       <c r="B976" s="2"/>
       <c r="C976" s="1"/>
@@ -16118,7 +19665,7 @@
       <c r="G976" s="1"/>
       <c r="H976" s="1"/>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A977" s="1"/>
       <c r="B977" s="2"/>
       <c r="C977" s="1"/>
@@ -16128,7 +19675,7 @@
       <c r="G977" s="1"/>
       <c r="H977" s="1"/>
     </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A978" s="1"/>
       <c r="B978" s="2"/>
       <c r="C978" s="1"/>
@@ -16138,7 +19685,7 @@
       <c r="G978" s="1"/>
       <c r="H978" s="1"/>
     </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A979" s="1"/>
       <c r="B979" s="2"/>
       <c r="C979" s="1"/>
@@ -16148,7 +19695,7 @@
       <c r="G979" s="1"/>
       <c r="H979" s="1"/>
     </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A980" s="1"/>
       <c r="B980" s="2"/>
       <c r="C980" s="1"/>
@@ -16158,7 +19705,7 @@
       <c r="G980" s="1"/>
       <c r="H980" s="1"/>
     </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A981" s="1"/>
       <c r="B981" s="2"/>
       <c r="C981" s="1"/>
@@ -16168,7 +19715,7 @@
       <c r="G981" s="1"/>
       <c r="H981" s="1"/>
     </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A982" s="1"/>
       <c r="B982" s="2"/>
       <c r="C982" s="1"/>
@@ -16178,7 +19725,7 @@
       <c r="G982" s="1"/>
       <c r="H982" s="1"/>
     </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A983" s="1"/>
       <c r="B983" s="2"/>
       <c r="C983" s="1"/>
@@ -16188,7 +19735,7 @@
       <c r="G983" s="1"/>
       <c r="H983" s="1"/>
     </row>
-    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A984" s="1"/>
       <c r="B984" s="2"/>
       <c r="C984" s="1"/>
@@ -16198,7 +19745,7 @@
       <c r="G984" s="1"/>
       <c r="H984" s="1"/>
     </row>
-    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A985" s="1"/>
       <c r="B985" s="2"/>
       <c r="C985" s="1"/>
@@ -16208,7 +19755,7 @@
       <c r="G985" s="1"/>
       <c r="H985" s="1"/>
     </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A986" s="1"/>
       <c r="B986" s="2"/>
       <c r="C986" s="1"/>
@@ -16218,7 +19765,7 @@
       <c r="G986" s="1"/>
       <c r="H986" s="1"/>
     </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A987" s="1"/>
       <c r="B987" s="2"/>
       <c r="C987" s="1"/>
@@ -16228,7 +19775,7 @@
       <c r="G987" s="1"/>
       <c r="H987" s="1"/>
     </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A988" s="1"/>
       <c r="B988" s="2"/>
       <c r="C988" s="1"/>
@@ -16238,7 +19785,7 @@
       <c r="G988" s="1"/>
       <c r="H988" s="1"/>
     </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A989" s="1"/>
       <c r="B989" s="2"/>
       <c r="C989" s="1"/>
@@ -16248,7 +19795,7 @@
       <c r="G989" s="1"/>
       <c r="H989" s="1"/>
     </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A990" s="1"/>
       <c r="B990" s="2"/>
       <c r="C990" s="1"/>
@@ -16258,7 +19805,7 @@
       <c r="G990" s="1"/>
       <c r="H990" s="1"/>
     </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A991" s="1"/>
       <c r="B991" s="2"/>
       <c r="C991" s="1"/>
@@ -16268,7 +19815,7 @@
       <c r="G991" s="1"/>
       <c r="H991" s="1"/>
     </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A992" s="1"/>
       <c r="B992" s="2"/>
       <c r="C992" s="1"/>
@@ -16278,7 +19825,7 @@
       <c r="G992" s="1"/>
       <c r="H992" s="1"/>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A993" s="1"/>
       <c r="B993" s="2"/>
       <c r="C993" s="1"/>
@@ -16288,7 +19835,7 @@
       <c r="G993" s="1"/>
       <c r="H993" s="1"/>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A994" s="1"/>
       <c r="B994" s="2"/>
       <c r="C994" s="1"/>
@@ -16298,7 +19845,7 @@
       <c r="G994" s="1"/>
       <c r="H994" s="1"/>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A995" s="1"/>
       <c r="B995" s="2"/>
       <c r="C995" s="1"/>
@@ -16308,7 +19855,7 @@
       <c r="G995" s="1"/>
       <c r="H995" s="1"/>
     </row>
-    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A996" s="1"/>
       <c r="B996" s="2"/>
       <c r="C996" s="1"/>
@@ -16318,7 +19865,7 @@
       <c r="G996" s="1"/>
       <c r="H996" s="1"/>
     </row>
-    <row r="997" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A997" s="1"/>
       <c r="B997" s="2"/>
       <c r="C997" s="1"/>
@@ -16328,7 +19875,7 @@
       <c r="G997" s="1"/>
       <c r="H997" s="1"/>
     </row>
-    <row r="998" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A998" s="1"/>
       <c r="B998" s="2"/>
       <c r="C998" s="1"/>
@@ -16338,7 +19885,7 @@
       <c r="G998" s="1"/>
       <c r="H998" s="1"/>
     </row>
-    <row r="999" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A999" s="1"/>
       <c r="B999" s="2"/>
       <c r="C999" s="1"/>
@@ -16372,15 +19919,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -16394,7 +19941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -16408,7 +19955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -16422,7 +19969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -16436,7 +19983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -16450,7 +19997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -16460,7 +20007,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>

--- a/public/template/reservations.xlsx
+++ b/public/template/reservations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\singular-theatre\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E1FCA1-A598-4772-86D0-0D016BC24544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849D7CC7-82A0-4F3F-9993-938BA7495C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32625" yWindow="-21720" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32625" yWindow="-21720" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>SingularLogic</t>
   </si>
@@ -68,15 +68,22 @@
   <si>
     <t>Άλλο</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 29-01-2023</t>
+  </si>
+  <si>
+    <t>Άθροισμα Εταιρειών</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,6 +107,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,25 +147,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,9 +177,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -185,6 +184,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
@@ -512,14 +520,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -13049,16 +13057,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE3CC9B-C11B-4284-8DC9-C2B47AE7F9BC}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -13076,7 +13087,7 @@
       <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13091,7 +13102,7 @@
         <f>SUMIF(Worksheet!A:A,A2,Worksheet!E:E)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="4">
@@ -13110,7 +13121,7 @@
         <f>SUMIF(Worksheet!A:A,A3,Worksheet!E:E)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="4">
@@ -13129,7 +13140,7 @@
         <f>SUMIF(Worksheet!A:A,A4,Worksheet!E:E)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="4">
@@ -13148,7 +13159,7 @@
         <f>SUMIF(Worksheet!A:A,A5,Worksheet!E:E)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="4">
@@ -13165,7 +13176,7 @@
         <f>SUM(C2:C5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="4">
@@ -13174,11 +13185,179 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="4">
         <f>SUM(G1:G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44956</v>
+      </c>
+      <c r="D11" s="13">
+        <v>44959</v>
+      </c>
+      <c r="E11" s="13">
+        <v>44962</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F2,Worksheet!A:A,A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F2,Worksheet!A:A,A3)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F2,Worksheet!A:A,A4)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F2,Worksheet!A:A,A5)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUM(B12:E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F3,Worksheet!A:A,A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F3,Worksheet!A:A,A3)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F3,Worksheet!A:A,A4)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F3,Worksheet!A:A,A5)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:F17" si="0">SUM(B13:E13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F4,Worksheet!A:A,A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F4,Worksheet!A:A,A3)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F4,Worksheet!A:A,A4)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F4,Worksheet!A:A,A5)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F5,Worksheet!A:A,A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F5,Worksheet!A:A,A3)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F5,Worksheet!A:A,A4)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F5,Worksheet!A:A,A5)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F6,Worksheet!A:A,A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F6,Worksheet!A:A,A3)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F6,Worksheet!A:A,A4)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUMIFS(Worksheet!E:E,Worksheet!F:F,F6,Worksheet!A:A,A5)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4">
+        <f>SUM(B12:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17" si="1">SUM(C12:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17" si="2">SUM(D12:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" ref="E17" si="3">SUM(E12:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
